--- a/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
+++ b/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T11:55:14+00:00</t>
+    <t>2024-06-26T11:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
+++ b/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T11:56:25+00:00</t>
+    <t>2024-06-26T14:25:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
+++ b/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T12:12:34+00:00</t>
+    <t>2024-06-27T12:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
+++ b/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T12:22:16+00:00</t>
+    <t>2024-06-27T12:38:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
+++ b/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>CdL_BundleResultatRechercheNotesCdL</t>
+    <t>CdLBundleResultatRechercheNotes</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T12:38:59+00:00</t>
+    <t>2024-07-03T12:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
+++ b/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T12:11:05+00:00</t>
+    <t>2024-07-17T09:53:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
+++ b/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T09:53:58+00:00</t>
+    <t>2024-07-17T12:07:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
+++ b/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T12:07:37+00:00</t>
+    <t>2024-07-22T08:11:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
+++ b/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T08:11:32+00:00</t>
+    <t>2024-07-22T09:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
+++ b/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T09:31:05+00:00</t>
+    <t>2024-07-22T10:07:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
+++ b/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T10:07:53+00:00</t>
+    <t>2024-07-22T11:30:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
+++ b/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T11:30:39+00:00</t>
+    <t>2024-07-22T11:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
+++ b/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T11:50:49+00:00</t>
+    <t>2024-08-29T16:16:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
+++ b/nr-add-st/ig/StructureDefinition-cdl-bundle-resultat-recherche-notes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-29T16:16:51+00:00</t>
+    <t>2024-08-30T08:26:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
